--- a/DateBase/orders/International Ever Green_2025-11-8.xlsx
+++ b/DateBase/orders/International Ever Green_2025-11-8.xlsx
@@ -810,6 +810,9 @@
       <c r="G2" t="str">
         <v>050206590518131125101075715409355121525151066115302525151510</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
